--- a/Glaciers_Tables/AMEGHINO/AMEGHINO_AIRTEMPERATURE.xlsx
+++ b/Glaciers_Tables/AMEGHINO/AMEGHINO_AIRTEMPERATURE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/f_camacho10_uniandes_edu_co/Documents/Copernicus_Master_Olomouc_Documents/Thesis/Github/PatagonianGlaciers/Glaciers_Tables/AMEGHINO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{48E795A8-7E00-41AF-8461-3872DFC2FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{842A86EF-C56E-4767-B16B-B84EDD9512DD}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{48E795A8-7E00-41AF-8461-3872DFC2FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF7BB25-66B3-4BBA-8153-69A6234DE415}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,12 +589,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2179,10 +2177,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2220,7 +2222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2326,7 +2328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2468,7 +2470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2479,7 +2481,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,8 +2520,7 @@
         <f xml:space="preserve"> 0.1699*C2 + 0.3241</f>
         <v>0.49399999999999999</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O2" cm="1">
@@ -2541,8 +2542,7 @@
         <f t="shared" ref="D3:D6" si="0" xml:space="preserve"> 0.1699*C3 + 0.3241</f>
         <v>0.66389999999999993</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="O3">
@@ -2564,8 +2564,7 @@
         <f t="shared" si="0"/>
         <v>0.8338000000000001</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O4">
@@ -2587,7 +2586,6 @@
         <f t="shared" si="0"/>
         <v>1.0037</v>
       </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2603,7 +2601,6 @@
         <f t="shared" si="0"/>
         <v>1.1736</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
